--- a/docs/odh/shr-core-Device.xlsx
+++ b/docs/odh/shr-core-Device.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="270">
   <si>
     <t>Path</t>
   </si>
@@ -202,7 +202,215 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Device.meta.id</t>
+    <t>Device.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Device.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Device.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Device.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Device.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>partof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>Device.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Device.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial Number
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Instance identifier</t>
+  </si>
+  <si>
+    <t>Unique instance identifiers assigned to a device by manufacturers other organizations or owners.</t>
+  </si>
+  <si>
+    <t>The barcode string from a barcode present on a device label or package may identify the instance, include names given to the device in local usage, or may identify the type of device. If the identifier identifies the type of device, Device.type element should be used.  For [UDI](device.html#5.11.3.2.2),  this element corresponds to the variable portion of the UDI that identifies the serial number of a specific device. See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>The serial number which is a component of the production identifier (PI), a conditional, variable portion of a UDI.   The identifier.type code should be set to “SNO”(Serial Number) and the system left empty.</t>
+  </si>
+  <si>
+    <t>Device.udi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Unique Device Identifier (UDI) Barcode string</t>
+  </si>
+  <si>
+    <t>[Unique device identifier (UDI)](device.html#5.11.3.2.2) assigned to device label or package.</t>
+  </si>
+  <si>
+    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>.id and .code</t>
+  </si>
+  <si>
+    <t>Device.udi.id</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -221,313 +429,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Device.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
+    <t>Device.udi.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Device.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Device.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Device.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Device.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Device.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Device.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Device.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Device.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Device.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Device.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
-  </si>
-  <si>
-    <t>Device.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Device.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serial Number
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Instance identifier</t>
-  </si>
-  <si>
-    <t>Unique instance identifiers assigned to a device by manufacturers other organizations or owners.</t>
-  </si>
-  <si>
-    <t>The barcode string from a barcode present on a device label or package may identify the instance, include names given to the device in local usage, or may identify the type of device. If the identifier identifies the type of device, Device.type element should be used.  For [UDI](device.html#5.11.3.2.2),  this element corresponds to the variable portion of the UDI that identifies the serial number of a specific device. See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>The serial number which is a component of the production identifier (PI), a conditional, variable portion of a UDI.   The identifier.type code should be set to “SNO”(Serial Number) and the system left empty.</t>
-  </si>
-  <si>
-    <t>Device.udi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique Device Identifier (UDI) Barcode string</t>
-  </si>
-  <si>
-    <t>[Unique device identifier (UDI)](device.html#5.11.3.2.2) assigned to device label or package.</t>
-  </si>
-  <si>
-    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>.id and .code</t>
-  </si>
-  <si>
-    <t>Device.udi.id</t>
-  </si>
-  <si>
-    <t>Device.udi.extension</t>
   </si>
   <si>
     <t>Device.udi.modifierExtension</t>
@@ -960,6 +868,9 @@
   </si>
   <si>
     <t>Provides additional safety characteristics about a medical device.  For example devices containing latex.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes used to identify medical devices safety characterics. These codes are derived in part from the [United States Food and Drug Administration recommendations](http://www.fda.gov/downloads/medicaldevices/deviceregulationandguidance/guidancedocuments/ucm107708.pdf) and are provided here as a suggestive example.</t>
@@ -1114,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1150,7 +1061,7 @@
     <col min="25" max="25" width="39.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1631,10 +1542,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>61</v>
@@ -1645,7 +1556,9 @@
       <c r="L5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1694,7 +1607,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1712,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -1727,14 +1640,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1746,16 +1659,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1781,37 +1694,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1823,7 +1736,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -1834,11 +1747,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1854,19 +1767,19 @@
         <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1915,13 +1828,17 @@
       <c r="AD7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -1930,7 +1847,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1941,18 +1858,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1961,19 +1878,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2022,11 +1939,15 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -2037,7 +1958,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -2048,11 +1969,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2068,19 +1989,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2118,22 +2039,24 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2144,7 +2067,7 @@
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -2155,9 +2078,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2166,7 +2091,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2175,20 +2100,16 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2213,13 +2134,13 @@
         <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>40</v>
@@ -2236,11 +2157,15 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2262,11 +2187,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2279,22 +2204,22 @@
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2320,13 +2245,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2343,11 +2268,15 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2358,7 +2287,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
@@ -2369,39 +2298,39 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2451,13 +2380,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2469,18 +2398,18 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2488,31 +2417,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2538,13 +2467,13 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
@@ -2574,16 +2503,16 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2591,11 +2520,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2614,17 +2543,15 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2673,7 +2600,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2682,7 +2609,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2691,7 +2618,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2702,11 +2629,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2725,16 +2652,16 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2784,7 +2711,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2802,7 +2729,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2813,11 +2740,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2830,22 +2757,22 @@
         <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2883,17 +2810,19 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2911,7 +2840,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -2922,13 +2851,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B17" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2944,12 +2871,14 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K17" s="2"/>
       <c r="L17" t="s" s="2">
         <v>140</v>
       </c>
@@ -3008,7 +2937,7 @@
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -3020,50 +2949,50 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I18" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3119,7 +3048,7 @@
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3131,29 +3060,29 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3165,18 +3094,18 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3224,13 +3153,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3242,22 +3171,22 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3267,7 +3196,7 @@
         <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -3276,16 +3205,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3335,7 +3264,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3347,28 +3276,28 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3384,18 +3313,20 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3444,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3459,32 +3390,32 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3496,17 +3427,15 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3555,13 +3484,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3573,52 +3502,52 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3642,13 +3571,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3666,13 +3595,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3684,7 +3613,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3695,11 +3624,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3712,21 +3641,23 @@
         <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3751,13 +3682,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3775,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3793,51 +3724,49 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>173</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3862,13 +3791,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3886,7 +3815,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3901,21 +3830,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3938,18 +3867,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3997,7 +3924,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4015,26 +3942,26 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>48</v>
@@ -4046,20 +3973,18 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4108,7 +4033,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4123,25 +4048,25 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>191</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4157,20 +4082,18 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4219,7 +4142,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4234,25 +4157,25 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4271,13 +4194,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4328,7 +4251,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4346,18 +4269,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4380,18 +4303,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4415,13 +4336,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4439,7 +4360,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4457,10 +4378,10 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4468,7 +4389,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4485,23 +4406,21 @@
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4526,13 +4445,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4550,7 +4469,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4568,10 +4487,10 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4579,7 +4498,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4602,16 +4521,18 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4635,13 +4556,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4659,7 +4580,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4674,21 +4595,21 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4711,13 +4632,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4768,7 +4689,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4786,18 +4707,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4808,7 +4729,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4820,15 +4741,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4877,13 +4800,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4895,18 +4818,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4929,16 +4852,18 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -4986,7 +4911,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5004,18 +4929,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5038,15 +4963,17 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5095,7 +5022,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5113,18 +5040,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5135,7 +5062,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5147,13 +5074,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5204,13 +5131,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5222,10 +5149,10 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5233,7 +5160,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5244,7 +5171,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5253,16 +5180,16 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5289,13 +5216,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5313,13 +5240,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5331,788 +5258,17 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM45">
+  <autoFilter ref="A1:AM38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6122,7 +5278,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Device.xlsx
+++ b/docs/odh/shr-core-Device.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="331">
   <si>
     <t>Path</t>
   </si>
@@ -202,13 +202,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Device.implicitRules</t>
+    <t>Device.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Device.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Device.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Device.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Device.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Device.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Device.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Device.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -238,9 +387,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -309,41 +455,116 @@
     <t>Device.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>statusreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StatusReason-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
+    <t>Device.extension.id</t>
+  </si>
+  <si>
+    <t>Device.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Device.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StatusReason-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Device.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>distinctidentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DistinctIdentifier-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The distinct identification string as required by regulation for a human cell, tissue, or cellular and tissue-based product.</t>
+  </si>
+  <si>
+    <t>serialnumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SerialNumber-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Serial number assigned by the manufacturer.</t>
+  </si>
+  <si>
+    <t>devicedesignation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DeviceDesignation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A name of the device as given by the manufacturer, along with a type of name.</t>
   </si>
   <si>
     <t>partof</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PartOf-extension]]} {[]}
 </t>
   </si>
   <si>
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Device.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
+</t>
   </si>
   <si>
     <t>Device.modifierExtension</t>
@@ -413,29 +634,7 @@
     <t>Device.udi.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Device.udi.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Device.udi.modifierExtension</t>
@@ -641,10 +840,6 @@
     <t>Device.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>What kind of device this is</t>
   </si>
   <si>
@@ -751,7 +946,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -773,7 +968,7 @@
     <t>Device.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -811,7 +1006,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location]]}
 </t>
   </si>
   <si>
@@ -848,7 +1043,7 @@
     <t>Device.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation]]} {[]}
 </t>
   </si>
   <si>
@@ -868,9 +1063,6 @@
   </si>
   <si>
     <t>Provides additional safety characteristics about a medical device.  For example devices containing latex.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes used to identify medical devices safety characterics. These codes are derived in part from the [United States Food and Drug Administration recommendations](http://www.fda.gov/downloads/medicaldevices/deviceregulationandguidance/guidancedocuments/ucm107708.pdf) and are provided here as a suggestive example.</t>
@@ -1025,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1034,8 +1226,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.2265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1058,10 +1250,10 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.84765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.5703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1542,10 +1734,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>61</v>
@@ -1556,9 +1748,7 @@
       <c r="L5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>64</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1607,25 +1797,25 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -1640,14 +1830,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1659,16 +1849,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1694,37 +1884,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1736,7 +1926,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -1747,11 +1937,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1772,15 +1964,11 @@
       <c r="J7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>40</v>
@@ -1829,16 +2017,16 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -1847,7 +2035,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1858,18 +2046,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1878,19 +2066,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1939,15 +2127,11 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>90</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -1958,7 +2142,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -1969,18 +2153,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
@@ -1989,19 +2173,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2039,24 +2223,22 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2067,7 +2249,7 @@
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -2078,11 +2260,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2091,7 +2271,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2100,16 +2280,20 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2157,15 +2341,11 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2187,11 +2367,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2204,19 +2384,19 @@
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>97</v>
@@ -2245,13 +2425,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2268,15 +2448,11 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2287,7 +2463,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
@@ -2298,11 +2474,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2318,19 +2494,19 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2356,13 +2532,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
@@ -2379,37 +2555,33 @@
       <c r="AD12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AE12" s="2"/>
+      <c r="AF12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG12" s="2"/>
+      <c r="AH12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2417,31 +2589,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2491,7 +2663,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2503,16 +2675,16 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2520,7 +2692,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2543,15 +2715,17 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2576,13 +2750,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2600,7 +2774,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2618,7 +2792,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2629,18 +2803,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -2652,16 +2826,16 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2711,16 +2885,16 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
@@ -2740,11 +2914,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2757,22 +2931,22 @@
         <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2840,7 +3014,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -2851,18 +3025,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -2871,18 +3045,20 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2919,59 +3095,59 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="AL17" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -2980,20 +3156,16 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3042,13 +3214,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3060,18 +3232,18 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3097,15 +3269,13 @@
         <v>61</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3153,7 +3323,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3171,7 +3341,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3182,18 +3352,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3202,20 +3372,18 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3264,13 +3432,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3279,29 +3447,29 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>48</v>
@@ -3313,27 +3481,25 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
@@ -3375,10 +3541,10 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>48</v>
@@ -3390,29 +3556,29 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>48</v>
@@ -3427,13 +3593,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3460,13 +3626,11 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3484,7 +3648,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3502,20 +3666,22 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3536,18 +3702,14 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3571,13 +3733,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3595,13 +3757,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3613,7 +3775,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3624,9 +3786,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3641,23 +3805,19 @@
         <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3682,13 +3842,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3706,13 +3866,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3724,32 +3884,34 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -3758,13 +3920,11 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3791,13 +3951,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3815,13 +3975,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3830,23 +3990,25 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3867,13 +4029,11 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3924,13 +4084,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -3942,18 +4102,18 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3976,13 +4136,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4033,7 +4193,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4051,18 +4211,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4073,7 +4233,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4085,13 +4245,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4142,13 +4302,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4160,18 +4320,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4179,7 +4339,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>48</v>
@@ -4194,13 +4354,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4209,7 +4369,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>40</v>
@@ -4251,10 +4411,10 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>48</v>
@@ -4269,18 +4429,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4288,7 +4448,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>48</v>
@@ -4303,13 +4463,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4360,7 +4520,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4378,10 +4538,10 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4389,38 +4549,40 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4469,13 +4631,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4487,32 +4649,32 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4521,18 +4683,18 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4580,13 +4742,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4595,21 +4757,21 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4617,30 +4779,32 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4689,7 +4853,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4701,16 +4865,16 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4718,7 +4882,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4729,7 +4893,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4741,17 +4905,15 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4800,13 +4962,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4818,10 +4980,10 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -4829,18 +4991,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4852,18 +5014,18 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -4911,13 +5073,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -4929,10 +5091,10 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -4940,39 +5102,39 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5022,13 +5184,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5040,10 +5202,10 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5051,18 +5213,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5071,16 +5233,16 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5131,13 +5293,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5149,29 +5311,29 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5183,15 +5345,17 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5216,59 +5380,2257 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="s" s="2">
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM38">
+  <autoFilter ref="A1:AM58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5278,7 +7640,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
